--- a/reports/For Winter Ending (Actual)_PayrollHistory.xlsx
+++ b/reports/For Winter Ending (Actual)_PayrollHistory.xlsx
@@ -525,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>5078.58</v>
+        <v>7169.76</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -533,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>24289.27</v>
+        <v>31848.45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>30455.23</v>
+        <v>42826.55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>15099.17</v>
+        <v>29209.60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -557,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>5721.08</v>
+        <v>9091.42</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -565,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>54105.05</v>
+        <v>64678.13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -573,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>21180.88</v>
+        <v>29731.71</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -581,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>25095.61</v>
+        <v>31325.11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>8889.65</v>
+        <v>17877.18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -597,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>9469.11</v>
+        <v>14216.70</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -605,7 +605,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>620.72</v>
+        <v>1706.98</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -613,7 +613,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>4280.54</v>
+        <v>6193.16</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -621,7 +621,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>4593.77</v>
+        <v>7030.64</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -629,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>3444.98</v>
+        <v>4195.94</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -637,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>31780.29</v>
+        <v>47668.40</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>1053.54</v>
+        <v>1438.97</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -653,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>815.07</v>
+        <v>1445.50</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -661,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>2950.07</v>
+        <v>6335.92</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -669,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>972.29</v>
+        <v>2747.98</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -677,7 +677,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>806.88</v>
+        <v>2579.47</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -685,7 +685,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>212.96</v>
+        <v>842.64</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -693,7 +693,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>3429.92</v>
+        <v>4842.24</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -701,7 +701,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>11514.84</v>
+        <v>15685.93</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -709,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>23848.30</v>
+        <v>33546.17</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>5645.31</v>
+        <v>8129.83</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -725,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>27308.48</v>
+        <v>38706.87</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -733,7 +733,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>6280.82</v>
+        <v>8867.04</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -741,7 +741,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>6632.55</v>
+        <v>9363.60</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -749,7 +749,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>1669.57</v>
+        <v>2753.30</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -757,7 +757,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>16771.55</v>
+        <v>23777.52</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -765,7 +765,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>8233.78</v>
+        <v>12303.94</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -781,7 +781,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>2991.82</v>
+        <v>4720.07</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -789,7 +789,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>6451.01</v>
+        <v>9674.23</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -797,7 +797,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>11523.30</v>
+        <v>16589.05</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -805,7 +805,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>19638.40</v>
+        <v>27724.80</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -813,7 +813,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>8734.73</v>
+        <v>12266.52</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -821,7 +821,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>6793.54</v>
+        <v>9590.88</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -829,7 +829,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>5067.14</v>
+        <v>7025.71</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -837,7 +837,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>2991.32</v>
+        <v>4223.04</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_PayrollHistory.xlsx
+++ b/reports/For Winter Ending (Actual)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>department</t>
   </si>
@@ -52,46 +52,40 @@
     <t>D2000</t>
   </si>
   <si>
-    <t>D2200</t>
-  </si>
-  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D4055</t>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D4034</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D5113</t>
   </si>
   <si>
     <t>D5810</t>
   </si>
   <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D6212</t>
+    <t>D6030</t>
   </si>
   <si>
     <t>D6215</t>
@@ -100,16 +94,16 @@
     <t>D6700</t>
   </si>
   <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6720</t>
+    <t>D6721</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6750</t>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6760</t>
   </si>
   <si>
     <t>D6780</t>
@@ -124,6 +118,9 @@
     <t>D7010</t>
   </si>
   <si>
+    <t>D8010</t>
+  </si>
+  <si>
     <t>D8020</t>
   </si>
   <si>
@@ -139,7 +136,34 @@
     <t>D8060</t>
   </si>
   <si>
-    <t>D8700</t>
+    <t>D9001</t>
+  </si>
+  <si>
+    <t>D9002</t>
+  </si>
+  <si>
+    <t>D9005</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D9008</t>
+  </si>
+  <si>
+    <t>D9009</t>
+  </si>
+  <si>
+    <t>D9010</t>
+  </si>
+  <si>
+    <t>D9011</t>
+  </si>
+  <si>
+    <t>D9013</t>
+  </si>
+  <si>
+    <t>D9014</t>
   </si>
 </sst>
 </file>
@@ -502,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>7169.76</v>
+        <v>21936.24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -533,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>31848.45</v>
+        <v>36983.60</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -541,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>42826.55</v>
+        <v>26402.38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -549,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>29209.60</v>
+        <v>59149.45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -557,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>9091.42</v>
+        <v>11968.97</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -565,7 +589,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>64678.13</v>
+        <v>20361.49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -573,7 +597,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>29731.71</v>
+        <v>21907.44</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -581,7 +605,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>31325.11</v>
+        <v>46769.02</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -589,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>17877.18</v>
+        <v>24642.90</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -597,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>14216.70</v>
+        <v>30349.75</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -605,7 +629,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>1706.98</v>
+        <v>12688.26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -613,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>6193.16</v>
+        <v>3165.98</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -621,7 +645,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>7030.64</v>
+        <v>902.36</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -629,7 +653,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>4195.94</v>
+        <v>10897.54</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -637,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>47668.40</v>
+        <v>3712.21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -645,7 +669,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>1438.97</v>
+        <v>23855.37</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -653,7 +677,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>1445.50</v>
+        <v>16419.24</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -661,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>6335.92</v>
+        <v>9758.27</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -669,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>2747.98</v>
+        <v>8961.70</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -677,7 +701,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>2579.47</v>
+        <v>101.22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -685,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>842.64</v>
+        <v>210.48</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -693,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>4842.24</v>
+        <v>13504.55</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -701,7 +725,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>15685.93</v>
+        <v>8528.37</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -709,7 +733,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>33546.17</v>
+        <v>6016.56</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -717,7 +741,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>8129.83</v>
+        <v>871.50</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -725,7 +749,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>38706.87</v>
+        <v>6491.85</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -733,7 +757,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>8867.04</v>
+        <v>8291.89</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -741,7 +765,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>9363.60</v>
+        <v>19457.03</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -749,7 +773,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>2753.30</v>
+        <v>13976.79</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -757,7 +781,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>23777.52</v>
+        <v>4847.58</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -765,7 +789,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>12303.94</v>
+        <v>4763.72</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -773,7 +797,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>154.56</v>
+        <v>13699.93</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -781,7 +805,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>4720.07</v>
+        <v>14907.20</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -789,7 +813,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>9674.23</v>
+        <v>19806.91</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -797,7 +821,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>16589.05</v>
+        <v>18956.14</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -805,7 +829,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>27724.80</v>
+        <v>10650.79</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -813,7 +837,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>12266.52</v>
+        <v>5208.14</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -821,7 +845,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>9590.88</v>
+        <v>15016.56</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -829,7 +853,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>7025.71</v>
+        <v>913.36</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -837,7 +861,71 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>4223.04</v>
+        <v>557.50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2058.70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <v>949.37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2">
+        <v>386.45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3482.49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2">
+        <v>288.74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <v>656.74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1323.77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2">
+        <v>400.61</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_PayrollHistory.xlsx
+++ b/reports/For Winter Ending (Actual)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>department</t>
   </si>
@@ -52,40 +52,49 @@
     <t>D2000</t>
   </si>
   <si>
+    <t>D2200</t>
+  </si>
+  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>D4031</t>
-  </si>
-  <si>
-    <t>D4032</t>
-  </si>
-  <si>
-    <t>D4034</t>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>D4055</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>D5112</t>
-  </si>
-  <si>
-    <t>D5113</t>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>D5205</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>D5209</t>
   </si>
   <si>
     <t>D5810</t>
   </si>
   <si>
-    <t>D6030</t>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D6212</t>
   </si>
   <si>
     <t>D6215</t>
@@ -94,16 +103,16 @@
     <t>D6700</t>
   </si>
   <si>
-    <t>D6721</t>
+    <t>D6710</t>
+  </si>
+  <si>
+    <t>D6720</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6740</t>
-  </si>
-  <si>
-    <t>D6760</t>
+    <t>D6750</t>
   </si>
   <si>
     <t>D6780</t>
@@ -118,9 +127,6 @@
     <t>D7010</t>
   </si>
   <si>
-    <t>D8010</t>
-  </si>
-  <si>
     <t>D8020</t>
   </si>
   <si>
@@ -136,34 +142,7 @@
     <t>D8060</t>
   </si>
   <si>
-    <t>D9001</t>
-  </si>
-  <si>
-    <t>D9002</t>
-  </si>
-  <si>
-    <t>D9005</t>
-  </si>
-  <si>
-    <t>D9007</t>
-  </si>
-  <si>
-    <t>D9008</t>
-  </si>
-  <si>
-    <t>D9009</t>
-  </si>
-  <si>
-    <t>D9010</t>
-  </si>
-  <si>
-    <t>D9011</t>
-  </si>
-  <si>
-    <t>D9013</t>
-  </si>
-  <si>
-    <t>D9014</t>
+    <t>D8700</t>
   </si>
 </sst>
 </file>
@@ -526,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>21936.24</v>
+        <v>7468.50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -557,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>36983.60</v>
+        <v>32604.80</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -565,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>26402.38</v>
+        <v>44217.42</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -573,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>59149.45</v>
+        <v>30888.38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -581,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>11968.97</v>
+        <v>9911.14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -589,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>20361.49</v>
+        <v>67595.81</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -597,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>21907.44</v>
+        <v>30554.85</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -605,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>46769.02</v>
+        <v>31719.97</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -613,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>24642.90</v>
+        <v>18716.64</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -621,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>30349.75</v>
+        <v>15476.95</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -629,7 +608,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>12688.26</v>
+        <v>1862.16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -637,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>3165.98</v>
+        <v>6389.19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -645,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>902.36</v>
+        <v>7515.46</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -653,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>10897.54</v>
+        <v>4195.94</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -661,7 +640,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>3712.21</v>
+        <v>49938.13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -669,7 +648,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>23855.37</v>
+        <v>1438.97</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -677,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>16419.24</v>
+        <v>1445.50</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -685,7 +664,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>9758.27</v>
+        <v>85.35</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -693,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>8961.70</v>
+        <v>8290.09</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -701,7 +680,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>101.22</v>
+        <v>2907.81</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -709,7 +688,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>210.48</v>
+        <v>2738.22</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -717,7 +696,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>13504.55</v>
+        <v>1077.42</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -725,7 +704,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>8528.37</v>
+        <v>5044.00</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -733,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>6016.56</v>
+        <v>16281.80</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -741,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>871.50</v>
+        <v>35052.41</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -749,7 +728,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>6491.85</v>
+        <v>8726.46</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -757,7 +736,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>8291.89</v>
+        <v>40363.73</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -765,7 +744,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>19457.03</v>
+        <v>9236.50</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -773,7 +752,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>13976.79</v>
+        <v>9753.75</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -781,7 +760,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>4847.58</v>
+        <v>2932.34</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -789,7 +768,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>4763.72</v>
+        <v>24612.76</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -797,7 +776,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>13699.93</v>
+        <v>12813.41</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -805,7 +784,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>14907.20</v>
+        <v>154.56</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -813,7 +792,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>19806.91</v>
+        <v>5097.17</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -821,7 +800,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>18956.14</v>
+        <v>10116.99</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -829,7 +808,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>10650.79</v>
+        <v>17368.90</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -837,7 +816,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>5208.14</v>
+        <v>28880.00</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -845,7 +824,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>15016.56</v>
+        <v>12919.05</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -853,7 +832,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>913.36</v>
+        <v>9990.50</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -861,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>557.50</v>
+        <v>7355.32</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -869,63 +848,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>2058.70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2">
-        <v>949.37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2">
-        <v>386.45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="2">
-        <v>3482.49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="2">
-        <v>288.74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="2">
-        <v>656.74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1323.77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="2">
-        <v>400.61</v>
+        <v>4399.00</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_PayrollHistory.xlsx
+++ b/reports/For Winter Ending (Actual)_PayrollHistory.xlsx
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>7468.50</v>
+        <v>7767.24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>32604.80</v>
+        <v>33372.22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -544,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>44217.42</v>
+        <v>45951.04</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -552,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>30888.38</v>
+        <v>32621.02</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>9911.14</v>
+        <v>10750.73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -568,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>67595.81</v>
+        <v>70376.28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -576,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>30554.85</v>
+        <v>31930.37</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -584,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>31719.97</v>
+        <v>32171.23</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -592,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>18716.64</v>
+        <v>19720.50</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -600,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>15476.95</v>
+        <v>16148.70</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -608,7 +608,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>1862.16</v>
+        <v>2017.34</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -616,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>6389.19</v>
+        <v>6516.45</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -624,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>7515.46</v>
+        <v>7630.16</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -640,7 +640,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>49938.13</v>
+        <v>52207.86</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -656,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>1445.50</v>
+        <v>1605.50</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -672,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>8290.09</v>
+        <v>8984.10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -680,7 +680,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>2907.81</v>
+        <v>3251.24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -688,7 +688,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>2738.22</v>
+        <v>3498.47</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -696,7 +696,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>1077.42</v>
+        <v>1366.42</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -704,7 +704,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>5044.00</v>
+        <v>5245.76</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -712,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>16281.80</v>
+        <v>16877.67</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>35052.41</v>
+        <v>36611.96</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -728,7 +728,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>8726.46</v>
+        <v>9418.01</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -736,7 +736,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>40363.73</v>
+        <v>42074.07</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -744,7 +744,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>9236.50</v>
+        <v>9605.96</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -752,7 +752,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>9753.75</v>
+        <v>10143.90</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -760,7 +760,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>2932.34</v>
+        <v>3112.56</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -768,7 +768,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>24612.76</v>
+        <v>25624.60</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -776,7 +776,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>12813.41</v>
+        <v>13327.36</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -792,7 +792,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>5097.17</v>
+        <v>5449.46</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -800,7 +800,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>10116.99</v>
+        <v>10616.19</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -808,7 +808,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>17368.90</v>
+        <v>18126.10</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -816,7 +816,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>28880.00</v>
+        <v>30035.20</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -824,7 +824,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>12919.05</v>
+        <v>13579.62</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -832,7 +832,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>9990.50</v>
+        <v>10390.12</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -840,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>7355.32</v>
+        <v>7698.93</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -848,7 +848,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>4399.00</v>
+        <v>4574.96</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_PayrollHistory.xlsx
+++ b/reports/For Winter Ending (Actual)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>department</t>
   </si>
@@ -52,49 +52,40 @@
     <t>D2000</t>
   </si>
   <si>
-    <t>D2200</t>
-  </si>
-  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D4055</t>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D4034</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D5205</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D5113</t>
   </si>
   <si>
     <t>D5810</t>
   </si>
   <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D6212</t>
+    <t>D6030</t>
   </si>
   <si>
     <t>D6215</t>
@@ -103,16 +94,16 @@
     <t>D6700</t>
   </si>
   <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6720</t>
+    <t>D6721</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6750</t>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6760</t>
   </si>
   <si>
     <t>D6780</t>
@@ -127,6 +118,9 @@
     <t>D7010</t>
   </si>
   <si>
+    <t>D8010</t>
+  </si>
+  <si>
     <t>D8020</t>
   </si>
   <si>
@@ -142,7 +136,34 @@
     <t>D8060</t>
   </si>
   <si>
-    <t>D8700</t>
+    <t>D9001</t>
+  </si>
+  <si>
+    <t>D9002</t>
+  </si>
+  <si>
+    <t>D9005</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D9008</t>
+  </si>
+  <si>
+    <t>D9009</t>
+  </si>
+  <si>
+    <t>D9010</t>
+  </si>
+  <si>
+    <t>D9011</t>
+  </si>
+  <si>
+    <t>D9013</t>
+  </si>
+  <si>
+    <t>D9014</t>
   </si>
 </sst>
 </file>
@@ -505,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>7767.24</v>
+        <v>23764.26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -536,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>33372.22</v>
+        <v>45730.79</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -544,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45951.04</v>
+        <v>27712.37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -552,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>32621.02</v>
+        <v>62875.46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -560,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>10750.73</v>
+        <v>13034.18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -568,7 +589,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>70376.28</v>
+        <v>21178.74</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -576,7 +597,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>31930.37</v>
+        <v>23380.73</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -584,7 +605,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>32171.23</v>
+        <v>53527.50</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -592,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>19720.50</v>
+        <v>27554.03</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -600,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>16148.70</v>
+        <v>36599.38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -608,7 +629,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>2017.34</v>
+        <v>14850.64</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -616,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>6516.45</v>
+        <v>3491.82</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -624,7 +645,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>7630.16</v>
+        <v>1338.28</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -632,7 +653,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>4195.94</v>
+        <v>11857.28</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -640,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>52207.86</v>
+        <v>4019.48</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -648,7 +669,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>1438.97</v>
+        <v>25914.96</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -656,7 +677,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>1605.50</v>
+        <v>18999.77</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -664,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>85.35</v>
+        <v>11475.60</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -672,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>8984.10</v>
+        <v>9424.10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -680,7 +701,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>3251.24</v>
+        <v>178.84</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -688,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>3498.47</v>
+        <v>210.48</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -696,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>1366.42</v>
+        <v>14342.01</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -704,7 +725,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>5245.76</v>
+        <v>9254.94</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -712,7 +733,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>16877.67</v>
+        <v>6517.94</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -720,7 +741,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>36611.96</v>
+        <v>1185.42</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -728,7 +749,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>9418.01</v>
+        <v>7469.47</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -736,7 +757,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>42074.07</v>
+        <v>9867.26</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -744,7 +765,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>9605.96</v>
+        <v>20926.30</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -752,7 +773,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>10143.90</v>
+        <v>14309.20</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -760,7 +781,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>3112.56</v>
+        <v>5531.19</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -768,7 +789,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>25624.60</v>
+        <v>5808.15</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -776,7 +797,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>13327.36</v>
+        <v>15098.39</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -784,7 +805,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>154.56</v>
+        <v>16312.80</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -792,7 +813,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>5449.46</v>
+        <v>21441.65</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -800,7 +821,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>10616.19</v>
+        <v>20604.50</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -808,7 +829,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>18126.10</v>
+        <v>11422.73</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -816,7 +837,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>30035.20</v>
+        <v>5642.20</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -824,7 +845,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>13579.62</v>
+        <v>16267.94</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -832,7 +853,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>10390.12</v>
+        <v>913.36</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -840,7 +861,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>7698.93</v>
+        <v>557.50</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -848,7 +869,63 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>4574.96</v>
+        <v>2058.70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <v>949.37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2">
+        <v>386.45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3482.49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2">
+        <v>288.74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <v>656.74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1323.77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2">
+        <v>400.61</v>
       </c>
     </row>
   </sheetData>
